--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3129304.062791505</v>
+        <v>3126760.276046049</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.6025264431477</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83532033605543</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>258.6025264431605</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>115.3507887739389</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>152.7938006179685</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2947308627103</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.382814765181</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881888</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>153.7628387503156</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>202.5817365607172</v>
       </c>
     </row>
     <row r="4">
@@ -820,25 +820,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.69788833070404</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718861</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>259.2505607854121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.4450108596164</v>
+        <v>259.6326967715748</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>122.326847937066</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>72.75665393493907</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>220.8920305126478</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>239.3135884893127</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.1854048069416</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083733</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6418937426531</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.4970442233421</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233421</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233421</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233421</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741386</v>
+        <v>411.766216649048</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>398.8012466126284</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377187</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121448</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467368</v>
+        <v>49.15993901467505</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935565</v>
+        <v>141.99705729356</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959978</v>
+        <v>294.0714735960036</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795987</v>
+        <v>494.9530007796069</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467034</v>
+        <v>703.6988094670446</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288965</v>
+        <v>887.4762960289096</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.82512810807</v>
+        <v>1009.825128108085</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.53125906074</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.53125906074</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193412</v>
+        <v>899.1940867193581</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357953</v>
+        <v>684.7549646358123</v>
       </c>
       <c r="U2" t="n">
-        <v>684.7549646357953</v>
+        <v>684.7549646358123</v>
       </c>
       <c r="V2" t="n">
-        <v>418.7117173982388</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="W2" t="n">
-        <v>418.7117173982388</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="X2" t="n">
-        <v>418.7117173982388</v>
+        <v>418.7117173982515</v>
       </c>
       <c r="Y2" t="n">
-        <v>418.7117173982388</v>
+        <v>418.7117173982515</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.0137964269948</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="C3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="D3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458678</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121448</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121448</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121448</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124654</v>
+        <v>95.65665001371222</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420722</v>
+        <v>242.2693060433208</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286587</v>
+        <v>432.7162285299092</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767082</v>
+        <v>647.5873146573354</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748545</v>
+        <v>908.3363012748687</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062223</v>
+        <v>1025.278016062239</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.53125906074</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155242</v>
+        <v>1053.53125906074</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155242</v>
+        <v>904.8834594767113</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155242</v>
+        <v>708.0718853368027</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155242</v>
+        <v>479.9359986374136</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155242</v>
+        <v>479.9359986374136</v>
       </c>
       <c r="W3" t="n">
-        <v>879.8409324175495</v>
+        <v>225.698641909212</v>
       </c>
       <c r="X3" t="n">
-        <v>671.9894322120167</v>
+        <v>225.698641909212</v>
       </c>
       <c r="Y3" t="n">
-        <v>464.2291334470628</v>
+        <v>21.07062518121481</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>846.7351778287851</v>
+        <v>190.0068081091217</v>
       </c>
       <c r="C4" t="n">
-        <v>677.7989949008783</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="D4" t="n">
-        <v>527.6823554885425</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="E4" t="n">
-        <v>379.7692619061494</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="F4" t="n">
-        <v>232.879314408239</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="G4" t="n">
-        <v>64.309434654912</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="H4" t="n">
-        <v>64.309434654912</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121448</v>
+        <v>21.07062518121481</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940727</v>
+        <v>125.4984182940838</v>
       </c>
       <c r="L4" t="n">
-        <v>315.717772996438</v>
+        <v>315.71777299645</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030352</v>
+        <v>526.6665349030483</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670127</v>
+        <v>738.0340231670268</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836323</v>
+        <v>917.2498138836474</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097375</v>
+        <v>1047.079201097391</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.53125906074</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060724</v>
+        <v>924.7153898972192</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778287851</v>
+        <v>717.9193086652806</v>
       </c>
       <c r="T4" t="n">
-        <v>846.7351778287851</v>
+        <v>717.9193086652806</v>
       </c>
       <c r="U4" t="n">
-        <v>846.7351778287851</v>
+        <v>451.8760614277198</v>
       </c>
       <c r="V4" t="n">
-        <v>846.7351778287851</v>
+        <v>451.8760614277198</v>
       </c>
       <c r="W4" t="n">
-        <v>846.7351778287851</v>
+        <v>190.0068081091217</v>
       </c>
       <c r="X4" t="n">
-        <v>846.7351778287851</v>
+        <v>190.0068081091217</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7351778287851</v>
+        <v>190.0068081091217</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>833.1938928750989</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,16 +4647,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>713.6562631339675</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4726,7 +4726,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
         <v>316.708372655101</v>
@@ -4738,7 +4738,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>724.5060127528328</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>469.821524546946</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>469.821524546946</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>469.821524546946</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>469.821524546946</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906.1570541554036</v>
+        <v>373.9157775549432</v>
       </c>
       <c r="C8" t="n">
-        <v>906.1570541554036</v>
+        <v>373.9157775549432</v>
       </c>
       <c r="D8" t="n">
-        <v>906.1570541554036</v>
+        <v>373.9157775549432</v>
       </c>
       <c r="E8" t="n">
-        <v>906.1570541554036</v>
+        <v>373.9157775549432</v>
       </c>
       <c r="F8" t="n">
-        <v>495.171149365796</v>
+        <v>366.9702768057397</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704327</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816104</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872951</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923567</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230824</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1876.889363126071</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1524.120707855956</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1150.654949594877</v>
       </c>
       <c r="Y8" t="n">
-        <v>906.1570541554036</v>
+        <v>760.515617619065</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370166</v>
       </c>
       <c r="K9" t="n">
-        <v>507.241398742976</v>
+        <v>423.1489515180674</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>1057.327935297106</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1420.589954256327</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1807.875082853274</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2139.945518029437</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568935</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676481</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>476.1547555788522</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>307.2185726509454</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386096</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386096</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386096</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386096</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386096</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590084</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784819</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.715222610545</v>
+        <v>1021.765895288657</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>767.0814070827704</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>657.803220409092</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>657.803220409092</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>657.803220409092</v>
       </c>
     </row>
     <row r="11">
@@ -5024,52 +5024,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5762,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,10 +6607,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>555.8158034133954</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
@@ -7558,13 +7558,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1730.34805652803</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.663568322143</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.246398285183</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>958.2568473871653</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.4642682436352</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.591643438772</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079437</v>
+        <v>2.109135423078698</v>
       </c>
       <c r="K3" t="n">
-        <v>96.89877181692395</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.025207453913765</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>91.8735643630153</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940997</v>
+        <v>105.9060266941098</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915882</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211334</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621874</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.91627445171747</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538656</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>735396.662002272</v>
+        <v>735396.6620022722</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>741290.1462185167</v>
+        <v>741290.1462185165</v>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312474</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287551</v>
-      </c>
       <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909299</v>
+        <v>679702.4124909348</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680935895</v>
+        <v>366.4703680890387</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059454</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642102</v>
+        <v>68912.53318642198</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774255184</v>
+        <v>85.20559774150207</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756974</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674017</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676992</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="N4" t="n">
         <v>12386.92018181811</v>
       </c>
-      <c r="H4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="P4" t="n">
         <v>12386.92018181815</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181813</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557693</v>
+        <v>63021.46164557726</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-277428.8732726618</v>
+        <v>-277428.8732726655</v>
       </c>
       <c r="C6" t="n">
-        <v>401980.5101515531</v>
+        <v>401980.5101515576</v>
       </c>
       <c r="D6" t="n">
-        <v>91598.45511776049</v>
+        <v>91598.45511775796</v>
       </c>
       <c r="E6" t="n">
-        <v>85258.38309848402</v>
+        <v>85223.64517305055</v>
       </c>
       <c r="F6" t="n">
-        <v>592743.82472303</v>
+        <v>592709.0867975947</v>
       </c>
       <c r="G6" t="n">
-        <v>592743.8247230302</v>
+        <v>592709.0867975948</v>
       </c>
       <c r="H6" t="n">
-        <v>592743.8247230304</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="I6" t="n">
-        <v>592743.8247230306</v>
+        <v>592709.0867975944</v>
       </c>
       <c r="J6" t="n">
-        <v>523831.2915366094</v>
+        <v>523796.5536111727</v>
       </c>
       <c r="K6" t="n">
-        <v>592658.6191252874</v>
+        <v>592623.8811998533</v>
       </c>
       <c r="L6" t="n">
-        <v>497361.1785854604</v>
+        <v>497326.4406600248</v>
       </c>
       <c r="M6" t="n">
-        <v>460136.5309941036</v>
+        <v>460101.7930686679</v>
       </c>
       <c r="N6" t="n">
-        <v>592743.8247230304</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="O6" t="n">
-        <v>592743.82472303</v>
+        <v>592709.0867975946</v>
       </c>
       <c r="P6" t="n">
-        <v>592743.8247230303</v>
+        <v>592709.0867975944</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.147216828176002e-15</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960552</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.382814765181</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.117460312884351e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734266602</v>
+        <v>0.2849904734231359</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480632</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.382814765181</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363251734</v>
+        <v>0.3310652363210209</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.382814765181</v>
+        <v>263.3828147651847</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252302</v>
+        <v>0.3310652363212482</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.382814765181</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363251734</v>
+        <v>0.3310652363210209</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.1313152203329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>55.60283948735753</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495394</v>
+        <v>64.36944370494979</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.4852405450067</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280754</v>
+        <v>43.94290942807513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642651</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>97.932144410604</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3.100959216587171</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>94.46814008731917</v>
+        <v>122.166028418023</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>22.87584376934223</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>27.27243755117888</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>145.8278809113911</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081375</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>163.9317825656115</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>338.7910488380149</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>106.8602279574871</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.91356563188788</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3375935296494</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.478485573907633e-15</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.615130334504556e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256562e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079617</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524913</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.12510079646704</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029089</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933473</v>
+        <v>313.8647179933491</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.376936487607</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460616</v>
+        <v>433.2568667460641</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.2674158061241</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.7320362316512</v>
       </c>
       <c r="P2" t="n">
-        <v>354.817674623121</v>
+        <v>354.8176746231231</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973342</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>154.9938943753601</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.22626896827683</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142103</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1973933743263693</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320184578410383</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75020369148975</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333994</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.728491243588</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970824</v>
+        <v>213.1808579970836</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289737</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963481</v>
+        <v>334.5046626963501</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682338</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466124</v>
+        <v>314.1054948466142</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439953</v>
+        <v>252.0973516439967</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5204033774377</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>81.96724952621662</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564898</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.321270296312024</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.08685424857963049</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.106798402665018</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.840443980058073</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923507</v>
+        <v>33.28444650923527</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.25064706841674</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.5898507823538</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653064</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.4956805195718</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.3703410187296</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.44092331487</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.8622359005035</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.67927351770433</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.76568090528341</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.28847761735307</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.729047720477801</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06037082196354648</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.190220890813</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.37304427622257</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.77486694836853</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176175</v>
+        <v>153.6105215176198</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>202.9106335187914</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>210.8543522095332</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.6338248099645</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.5846788678535</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.14760702288473</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.2381908396474</v>
+        <v>75.33941902272466</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490979</v>
+        <v>148.0935919490996</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743298</v>
+        <v>192.3706287743317</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>217.0415011388143</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>263.3828147651851</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141516</v>
+        <v>28.53862929141616</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059174</v>
+        <v>105.4826193059282</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.1407623256225</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.0795574814124</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.5025133979582</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.0260512289097</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.140795165397</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009406</v>
+        <v>6.517230266009946</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313267</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676411</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>285.5958035752507</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.348781916454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
